--- a/biology/Botanique/Eucalyptus_fraxinoides/Eucalyptus_fraxinoides.xlsx
+++ b/biology/Botanique/Eucalyptus_fraxinoides/Eucalyptus_fraxinoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eucalyptus fraxinoides est une espèce d'eucalyptus des régions montagneuses du sud-est de la Nouvelle-Galles du Sud en Australie. C'est un grand arbre au tronc parfois incliné qui atteint habituellement entre 20 et 40 mètres de hauteur. Il a une écorce gris foncé légèrement fibreuse qui laisse apparaitre au-dessous après sa chute de grandes plaques de gribouillis couleur cuivre dues à des insectes. Les feuilles sont alternes, lancéolées, brillantes concolores et mesurent de 8 à 16 cm de longueur. Les fleurs sont blanches.
 </t>
@@ -511,7 +523,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>http://plantnet.rbgsyd.nsw.gov.au/cgi-bin/NSWfl.pl?page=nswfl&amp;lvl=sp&amp;name=Eucalyptus~fraxinoides</t>
         </is>
